--- a/biology/Zoologie/Coleonyx_switaki/Coleonyx_switaki.xlsx
+++ b/biology/Zoologie/Coleonyx_switaki/Coleonyx_switaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coleonyx switaki est une espèce de geckos de la famille des Eublepharidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleonyx switaki est une espèce de geckos de la famille des Eublepharidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis dans le comté de San Diego en Californie et au Mexique en Basse-Californie et en Basse-Californie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis dans le comté de San Diego en Californie et au Mexique en Basse-Californie et en Basse-Californie du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko nocturne et terrestre.
 Ce gecko vit dans des milieux arides, où il passe la journée dans des crevasses à l'abri de la chaleur et de la sécheresse.
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un insectivore, qui chasse la nuit les insectes de taille adaptée passant à sa portée.
 </t>
@@ -605,9 +623,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Coleonyx switaki gypsicolus[2] a été élevée au rang d'espèce par Grismer en 1999[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Coleonyx switaki gypsicolus a été élevée au rang d'espèce par Grismer en 1999.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl-Heinz Switak[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karl-Heinz Switak.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Murphy, 1974 : A new genus and species of eublepharine gecko (Sauria: Gekkonidae) from Baja California, Mexico. Proceedings of the California Academy of Sciences, vol. 40, p. 87-92 (texte intégral).</t>
         </is>
